--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Gpc4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H2">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.6182083101658</v>
+        <v>15.740393</v>
       </c>
       <c r="N2">
-        <v>15.6182083101658</v>
+        <v>47.221179</v>
       </c>
       <c r="O2">
-        <v>0.2851840653323143</v>
+        <v>0.2847568403735705</v>
       </c>
       <c r="P2">
-        <v>0.2851840653323143</v>
+        <v>0.2847568403735705</v>
       </c>
       <c r="Q2">
-        <v>114.8506181394674</v>
+        <v>14.00410697575367</v>
       </c>
       <c r="R2">
-        <v>114.8506181394674</v>
+        <v>126.036962781783</v>
       </c>
       <c r="S2">
-        <v>0.2469008319889033</v>
+        <v>0.02655856704231541</v>
       </c>
       <c r="T2">
-        <v>0.2469008319889033</v>
+        <v>0.02655856704231541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H3">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.7802496450923</v>
+        <v>33.82224299999999</v>
       </c>
       <c r="N3">
-        <v>33.7802496450923</v>
+        <v>101.466729</v>
       </c>
       <c r="O3">
-        <v>0.6168178020431091</v>
+        <v>0.6118725911752718</v>
       </c>
       <c r="P3">
-        <v>0.6168178020431091</v>
+        <v>0.6118725911752717</v>
       </c>
       <c r="Q3">
-        <v>248.4076582663526</v>
+        <v>30.091390293237</v>
       </c>
       <c r="R3">
-        <v>248.4076582663526</v>
+        <v>270.822512639133</v>
       </c>
       <c r="S3">
-        <v>0.5340159112065016</v>
+        <v>0.05706784501740097</v>
       </c>
       <c r="T3">
-        <v>0.5340159112065016</v>
+        <v>0.05706784501740095</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H4">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.36690311765629</v>
+        <v>5.713974666666666</v>
       </c>
       <c r="N4">
-        <v>5.36690311765629</v>
+        <v>17.141924</v>
       </c>
       <c r="O4">
-        <v>0.09799813262457661</v>
+        <v>0.1033705684511578</v>
       </c>
       <c r="P4">
-        <v>0.09799813262457661</v>
+        <v>0.1033705684511578</v>
       </c>
       <c r="Q4">
-        <v>39.46625171827511</v>
+        <v>5.083679453794223</v>
       </c>
       <c r="R4">
-        <v>39.46625171827511</v>
+        <v>45.753115084148</v>
       </c>
       <c r="S4">
-        <v>0.0848428205488002</v>
+        <v>0.009641117554228699</v>
       </c>
       <c r="T4">
-        <v>0.0848428205488002</v>
+        <v>0.009641117554228695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H5">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I5">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J5">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.6182083101658</v>
+        <v>15.740393</v>
       </c>
       <c r="N5">
-        <v>15.6182083101658</v>
+        <v>47.221179</v>
       </c>
       <c r="O5">
-        <v>0.2851840653323143</v>
+        <v>0.2847568403735705</v>
       </c>
       <c r="P5">
-        <v>0.2851840653323143</v>
+        <v>0.2847568403735705</v>
       </c>
       <c r="Q5">
-        <v>4.331097631148929</v>
+        <v>116.77136470194</v>
       </c>
       <c r="R5">
-        <v>4.331097631148929</v>
+        <v>1050.94228231746</v>
       </c>
       <c r="S5">
-        <v>0.009310804119985538</v>
+        <v>0.2214550433975269</v>
       </c>
       <c r="T5">
-        <v>0.009310804119985538</v>
+        <v>0.2214550433975269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H6">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I6">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J6">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.7802496450923</v>
+        <v>33.82224299999999</v>
       </c>
       <c r="N6">
-        <v>33.7802496450923</v>
+        <v>101.466729</v>
       </c>
       <c r="O6">
-        <v>0.6168178020431091</v>
+        <v>0.6118725911752718</v>
       </c>
       <c r="P6">
-        <v>0.6168178020431091</v>
+        <v>0.6118725911752717</v>
       </c>
       <c r="Q6">
-        <v>9.367627599271376</v>
+        <v>250.91301547494</v>
       </c>
       <c r="R6">
-        <v>9.367627599271376</v>
+        <v>2258.21713927446</v>
       </c>
       <c r="S6">
-        <v>0.02013811580198641</v>
+        <v>0.4758525591684209</v>
       </c>
       <c r="T6">
-        <v>0.02013811580198641</v>
+        <v>0.4758525591684208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H7">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.36690311765629</v>
+        <v>5.713974666666666</v>
       </c>
       <c r="N7">
-        <v>5.36690311765629</v>
+        <v>17.141924</v>
       </c>
       <c r="O7">
-        <v>0.09799813262457661</v>
+        <v>0.1033705684511578</v>
       </c>
       <c r="P7">
-        <v>0.09799813262457661</v>
+        <v>0.1033705684511578</v>
       </c>
       <c r="Q7">
-        <v>1.488300124948212</v>
+        <v>42.38957818264</v>
       </c>
       <c r="R7">
-        <v>1.488300124948212</v>
+        <v>381.50620364376</v>
       </c>
       <c r="S7">
-        <v>0.003199482467327069</v>
+        <v>0.08039116353569035</v>
       </c>
       <c r="T7">
-        <v>0.003199482467327069</v>
+        <v>0.08039116353569034</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H8">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I8">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J8">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.6182083101658</v>
+        <v>15.740393</v>
       </c>
       <c r="N8">
-        <v>15.6182083101658</v>
+        <v>47.221179</v>
       </c>
       <c r="O8">
-        <v>0.2851840653323143</v>
+        <v>0.2847568403735705</v>
       </c>
       <c r="P8">
-        <v>0.2851840653323143</v>
+        <v>0.2847568403735705</v>
       </c>
       <c r="Q8">
-        <v>13.47707651897235</v>
+        <v>4.697137896308999</v>
       </c>
       <c r="R8">
-        <v>13.47707651897235</v>
+        <v>42.274241066781</v>
       </c>
       <c r="S8">
-        <v>0.02897242922342548</v>
+        <v>0.008908047613611522</v>
       </c>
       <c r="T8">
-        <v>0.02897242922342548</v>
+        <v>0.008908047613611523</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H9">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I9">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J9">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.7802496450923</v>
+        <v>33.82224299999999</v>
       </c>
       <c r="N9">
-        <v>33.7802496450923</v>
+        <v>101.466729</v>
       </c>
       <c r="O9">
-        <v>0.6168178020431091</v>
+        <v>0.6118725911752718</v>
       </c>
       <c r="P9">
-        <v>0.6168178020431091</v>
+        <v>0.6118725911752717</v>
       </c>
       <c r="Q9">
-        <v>29.14924684418328</v>
+        <v>10.092997000359</v>
       </c>
       <c r="R9">
-        <v>29.14924684418328</v>
+        <v>90.83697300323099</v>
       </c>
       <c r="S9">
-        <v>0.06266377503462116</v>
+        <v>0.01914120892935386</v>
       </c>
       <c r="T9">
-        <v>0.06266377503462116</v>
+        <v>0.01914120892935386</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.298413</v>
+      </c>
+      <c r="H10">
+        <v>0.895239</v>
+      </c>
+      <c r="I10">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J10">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.713974666666666</v>
+      </c>
+      <c r="N10">
+        <v>17.141924</v>
+      </c>
+      <c r="O10">
+        <v>0.1033705684511578</v>
+      </c>
+      <c r="P10">
+        <v>0.1033705684511578</v>
+      </c>
+      <c r="Q10">
+        <v>1.705124322204</v>
+      </c>
+      <c r="R10">
+        <v>15.346118899836</v>
+      </c>
+      <c r="S10">
+        <v>0.003233741266411626</v>
+      </c>
+      <c r="T10">
+        <v>0.003233741266411626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="H10">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="I10">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="J10">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.36690311765629</v>
-      </c>
-      <c r="N10">
-        <v>5.36690311765629</v>
-      </c>
-      <c r="O10">
-        <v>0.09799813262457661</v>
-      </c>
-      <c r="P10">
-        <v>0.09799813262457661</v>
-      </c>
-      <c r="Q10">
-        <v>4.63114350571735</v>
-      </c>
-      <c r="R10">
-        <v>4.63114350571735</v>
-      </c>
-      <c r="S10">
-        <v>0.009955829608449353</v>
-      </c>
-      <c r="T10">
-        <v>0.009955829608449353</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H11">
+        <v>2.797374</v>
+      </c>
+      <c r="I11">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J11">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.740393</v>
+      </c>
+      <c r="N11">
+        <v>47.221179</v>
+      </c>
+      <c r="O11">
+        <v>0.2847568403735705</v>
+      </c>
+      <c r="P11">
+        <v>0.2847568403735705</v>
+      </c>
+      <c r="Q11">
+        <v>14.677255375994</v>
+      </c>
+      <c r="R11">
+        <v>132.095298383946</v>
+      </c>
+      <c r="S11">
+        <v>0.02783518232011667</v>
+      </c>
+      <c r="T11">
+        <v>0.02783518232011667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H12">
+        <v>2.797374</v>
+      </c>
+      <c r="I12">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J12">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>33.82224299999999</v>
+      </c>
+      <c r="N12">
+        <v>101.466729</v>
+      </c>
+      <c r="O12">
+        <v>0.6118725911752718</v>
+      </c>
+      <c r="P12">
+        <v>0.6118725911752717</v>
+      </c>
+      <c r="Q12">
+        <v>31.537821063294</v>
+      </c>
+      <c r="R12">
+        <v>283.840389569646</v>
+      </c>
+      <c r="S12">
+        <v>0.05981097806009606</v>
+      </c>
+      <c r="T12">
+        <v>0.05981097806009605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H13">
+        <v>2.797374</v>
+      </c>
+      <c r="I13">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J13">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.713974666666666</v>
+      </c>
+      <c r="N13">
+        <v>17.141924</v>
+      </c>
+      <c r="O13">
+        <v>0.1033705684511578</v>
+      </c>
+      <c r="P13">
+        <v>0.1033705684511578</v>
+      </c>
+      <c r="Q13">
+        <v>5.328041389730667</v>
+      </c>
+      <c r="R13">
+        <v>47.95237250757601</v>
+      </c>
+      <c r="S13">
+        <v>0.01010454609482715</v>
+      </c>
+      <c r="T13">
+        <v>0.01010454609482714</v>
       </c>
     </row>
   </sheetData>
